--- a/raw/swp/pct_allocations.xlsx
+++ b/raw/swp/pct_allocations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20344"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\data\CA\dwr\swp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffh\OneDrive\Documents\UCDavis\data-surface-water\raw\swp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC08437-DA78-40D5-B115-BBF0FDC56350}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2A3331-0540-4DD9-9678-BA60920B0B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="5490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -351,15 +351,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -370,7 +370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1968</v>
       </c>
@@ -381,7 +381,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>1969</v>
       </c>
@@ -392,7 +392,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>1970</v>
       </c>
@@ -403,7 +403,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>1971</v>
       </c>
@@ -414,7 +414,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>1972</v>
       </c>
@@ -425,7 +425,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>1973</v>
       </c>
@@ -436,7 +436,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>1974</v>
       </c>
@@ -447,7 +447,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>1975</v>
       </c>
@@ -458,7 +458,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>1976</v>
       </c>
@@ -469,7 +469,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>1977</v>
       </c>
@@ -480,7 +480,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>1978</v>
       </c>
@@ -491,7 +491,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>1979</v>
       </c>
@@ -502,7 +502,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>1980</v>
       </c>
@@ -513,7 +513,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>1981</v>
       </c>
@@ -524,7 +524,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>1982</v>
       </c>
@@ -535,7 +535,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>1983</v>
       </c>
@@ -546,7 +546,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>1984</v>
       </c>
@@ -557,7 +557,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>1985</v>
       </c>
@@ -568,7 +568,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>1986</v>
       </c>
@@ -579,7 +579,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>1987</v>
       </c>
@@ -590,7 +590,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>1988</v>
       </c>
@@ -601,7 +601,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>1989</v>
       </c>
@@ -612,7 +612,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>1990</v>
       </c>
@@ -623,7 +623,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>1991</v>
       </c>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>1992</v>
       </c>
@@ -645,7 +645,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>1993</v>
       </c>
@@ -656,7 +656,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>1994</v>
       </c>
@@ -667,7 +667,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>1995</v>
       </c>
@@ -678,7 +678,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>1996</v>
       </c>
@@ -689,7 +689,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>1997</v>
       </c>
@@ -700,7 +700,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>1998</v>
       </c>
@@ -711,7 +711,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>1999</v>
       </c>
@@ -722,7 +722,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>2000</v>
       </c>
@@ -733,7 +733,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>2001</v>
       </c>
@@ -744,7 +744,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>2002</v>
       </c>
@@ -755,7 +755,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>2003</v>
       </c>
@@ -766,7 +766,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>2004</v>
       </c>
@@ -777,7 +777,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>2005</v>
       </c>
@@ -788,7 +788,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>2006</v>
       </c>
@@ -799,7 +799,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>2007</v>
       </c>
@@ -810,7 +810,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>2008</v>
       </c>
@@ -821,7 +821,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>2009</v>
       </c>
@@ -832,7 +832,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>2010</v>
       </c>
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>2011</v>
       </c>
@@ -854,7 +854,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>2012</v>
       </c>
@@ -865,7 +865,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>2013</v>
       </c>
@@ -876,7 +876,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>2014</v>
       </c>
@@ -887,7 +887,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>2015</v>
       </c>
@@ -898,7 +898,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>2016</v>
       </c>
@@ -909,7 +909,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>2017</v>
       </c>
@@ -920,7 +920,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
         <v>2018</v>
       </c>
@@ -931,15 +931,37 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
         <v>2019</v>
       </c>
       <c r="B53">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C53">
-        <v>70</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54">
+        <v>2020</v>
+      </c>
+      <c r="B54">
+        <v>20</v>
+      </c>
+      <c r="C54">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55">
+        <v>2021</v>
+      </c>
+      <c r="B55">
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
